--- a/AAII_Financials/Quarterly/CRBG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRBG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>CRBG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,164 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>4037000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3645000</v>
+      </c>
+      <c r="F8" s="3">
         <v>6897000</v>
       </c>
-      <c r="E8" s="3">
-        <v>7315000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>7795000</v>
-      </c>
       <c r="G8" s="3">
+        <v>7317000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>6931000</v>
+      </c>
+      <c r="I8" s="3">
         <v>6551000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5231000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3392000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>7041000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>118000</v>
+      </c>
+      <c r="F9" s="3">
         <v>339000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>431000</v>
       </c>
-      <c r="F9" s="3">
-        <v>543000</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>243000</v>
+      </c>
+      <c r="I9" s="3">
         <v>181000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>388000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>48000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>440000</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3781000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3527000</v>
+      </c>
+      <c r="F10" s="3">
         <v>6558000</v>
       </c>
-      <c r="E10" s="3">
-        <v>6884000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>7252000</v>
-      </c>
       <c r="G10" s="3">
+        <v>6886000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>6688000</v>
+      </c>
+      <c r="I10" s="3">
         <v>6370000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>4843000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3344000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>6601000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +834,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +865,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,37 +900,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="G14" s="3">
-        <v>-10000</v>
+        <v>3000</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>-2988000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="K14" s="3">
         <v>214000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>15000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +970,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +986,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4338000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4247000</v>
+      </c>
+      <c r="F17" s="3">
         <v>3646000</v>
       </c>
-      <c r="E17" s="3">
-        <v>3470000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>3295000</v>
-      </c>
       <c r="G17" s="3">
+        <v>3472000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2783000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1834000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3195000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3713000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2957000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-602000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3251000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3845000</v>
       </c>
-      <c r="F18" s="3">
-        <v>4500000</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>4148000</v>
+      </c>
+      <c r="I18" s="3">
         <v>4717000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2036000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-321000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4084000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,13 +1071,15 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-196000</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1025,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>233000</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1033,127 +1099,157 @@
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-392000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-636000</v>
+      </c>
+      <c r="F21" s="3">
         <v>3478000</v>
       </c>
-      <c r="E21" s="3">
-        <v>4204000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>4969000</v>
-      </c>
       <c r="G21" s="3">
+        <v>4516000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4538000</v>
+      </c>
+      <c r="I21" s="3">
         <v>4708000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2223000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-372000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4519000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>177000</v>
+      </c>
+      <c r="F22" s="3">
         <v>149000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>127000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>81000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>94000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>83000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>98000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>114000</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-669000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-779000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3102000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3718000</v>
       </c>
-      <c r="F23" s="3">
-        <v>4419000</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>4300000</v>
+      </c>
+      <c r="I23" s="3">
         <v>4623000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1953000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-419000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3970000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-216000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-252000</v>
+      </c>
+      <c r="F24" s="3">
         <v>625000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>735000</v>
       </c>
-      <c r="F24" s="3">
-        <v>883000</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>859000</v>
+      </c>
+      <c r="I24" s="3">
         <v>884000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>381000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-181000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>759000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1277,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-453000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-527000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2477000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2983000</v>
       </c>
-      <c r="F26" s="3">
-        <v>3536000</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>3441000</v>
+      </c>
+      <c r="I26" s="3">
         <v>3739000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1572000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-238000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>3211000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-566000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2351000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2903000</v>
       </c>
-      <c r="F27" s="3">
-        <v>3461000</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>3366000</v>
+      </c>
+      <c r="I27" s="3">
         <v>3122000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1420000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-303000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>3116000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1382,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1417,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1452,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,13 +1487,19 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>196000</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1373,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-233000</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1381,40 +1519,52 @@
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-566000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2351000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2903000</v>
       </c>
-      <c r="F33" s="3">
-        <v>3461000</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>3366000</v>
+      </c>
+      <c r="I33" s="3">
         <v>3122000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1420000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-303000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>3116000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1592,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-566000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2351000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2903000</v>
       </c>
-      <c r="F35" s="3">
-        <v>3461000</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>3366000</v>
+      </c>
+      <c r="I35" s="3">
         <v>3122000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1420000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-303000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>3116000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1686,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,37 +1701,45 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>552000</v>
+      </c>
+      <c r="F41" s="3">
         <v>382000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>457000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>583000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>537000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>518000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1767,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1802,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,8 +1837,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1676,8 +1872,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1705,37 +1907,49 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>224556000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>220912000</v>
+      </c>
+      <c r="F47" s="3">
         <v>213806000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>223790000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>239783000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>256318000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>254682000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1763,8 +1977,14 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +2012,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +2047,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,37 +2082,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8439000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8843000</v>
+      </c>
+      <c r="F52" s="3">
         <v>9715000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7778000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>6381000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>4837000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>4479000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,37 +2152,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>366691000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>360322000</v>
+      </c>
+      <c r="F54" s="3">
         <v>354595000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>368271000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>394667000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>416212000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>414231000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2206,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,8 +2221,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1992,8 +2252,14 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2001,57 +2267,69 @@
         <v>1500000</v>
       </c>
       <c r="E58" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="G58" s="3">
         <v>1895000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>8346000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>8317000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>248279000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>243796000</v>
+      </c>
+      <c r="F59" s="3">
         <v>242363000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>246535000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>260452000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>268806000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>264976000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2079,37 +2357,49 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10559000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13826000</v>
+      </c>
+      <c r="F61" s="3">
         <v>13863000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>13664000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>7313000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7363000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7762000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2137,8 +2427,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2462,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2497,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,37 +2532,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>355136000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>350942000</v>
+      </c>
+      <c r="F66" s="3">
         <v>347066000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>356388000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>375186000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>389126000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>377722000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2586,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2617,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2652,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2687,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,37 +2722,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17592000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>18207000</v>
+      </c>
+      <c r="F72" s="3">
         <v>16783000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>14643000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>12030000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>8859000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>25913000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2792,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2827,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,37 +2862,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11555000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>9380000</v>
+      </c>
+      <c r="F76" s="3">
         <v>7529000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11883000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>19481000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>27086000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>36509000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2932,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-459000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-566000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2351000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2903000</v>
       </c>
-      <c r="F81" s="3">
-        <v>3461000</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>3366000</v>
+      </c>
+      <c r="I81" s="3">
         <v>3122000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1420000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-303000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>3116000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +3026,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="F83" s="3">
         <v>227000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>359000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>469000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>-9000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>187000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>-51000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>435000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +3092,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +3127,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +3162,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +3197,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,37 +3232,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>493000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1633000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>554000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>15000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>865000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>167000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>856000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>573000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3286,10 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3317,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3352,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,37 +3387,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1477000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3923000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-875000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1209000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1246000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>1077000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1526000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1992000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>474000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,13 +3441,15 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-149000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -2995,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-290000</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3006,8 +3472,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3507,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3542,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,54 +3577,66 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1065000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3620000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-838000</v>
       </c>
-      <c r="E100" s="3">
-        <v>586000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1232000</v>
-      </c>
       <c r="G100" s="3">
+        <v>568000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1906000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>930000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1094000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-927000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-1000</v>
@@ -3148,36 +3644,48 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>189000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-85000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-71000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>35000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-429000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-43000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>120000</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRBG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRBG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>CRBG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,176 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5590000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4037000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3645000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6897000</v>
       </c>
-      <c r="G8" s="3">
-        <v>7317000</v>
-      </c>
       <c r="H8" s="3">
+        <v>6539000</v>
+      </c>
+      <c r="I8" s="3">
         <v>6931000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6551000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5231000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3392000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7041000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E9" s="3">
         <v>256000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>118000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>339000</v>
       </c>
-      <c r="G9" s="3">
-        <v>431000</v>
-      </c>
       <c r="H9" s="3">
+        <v>252000</v>
+      </c>
+      <c r="I9" s="3">
         <v>243000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>181000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>388000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>48000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>440000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5332000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3781000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3527000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6558000</v>
       </c>
-      <c r="G10" s="3">
-        <v>6886000</v>
-      </c>
       <c r="H10" s="3">
+        <v>6287000</v>
+      </c>
+      <c r="I10" s="3">
         <v>6688000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6370000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4843000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3344000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6601000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +848,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +884,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,43 +922,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2988000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-103000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>214000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,8 +998,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,78 +1013,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4807000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4338000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4247000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3646000</v>
       </c>
-      <c r="G17" s="3">
-        <v>3472000</v>
-      </c>
       <c r="H17" s="3">
+        <v>3131000</v>
+      </c>
+      <c r="I17" s="3">
         <v>2783000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1834000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3195000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3713000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2957000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>783000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-301000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-602000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3251000</v>
       </c>
-      <c r="G18" s="3">
-        <v>3845000</v>
-      </c>
       <c r="H18" s="3">
+        <v>3408000</v>
+      </c>
+      <c r="I18" s="3">
         <v>4148000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4717000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2036000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-321000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4084000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,17 +1105,18 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-196000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1091,11 +1124,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>45000</v>
+      </c>
+      <c r="I20" s="3">
         <v>233000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1105,151 +1138,166 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1179000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-392000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-636000</v>
       </c>
-      <c r="F21" s="3">
-        <v>3478000</v>
-      </c>
       <c r="G21" s="3">
-        <v>4516000</v>
+        <v>3983000</v>
       </c>
       <c r="H21" s="3">
+        <v>3619000</v>
+      </c>
+      <c r="I21" s="3">
         <v>4538000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4708000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2223000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-372000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4519000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E22" s="3">
         <v>172000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>177000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>149000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>127000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>81000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>94000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>83000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>98000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>114000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>911000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-669000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-779000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3102000</v>
       </c>
-      <c r="G23" s="3">
-        <v>3718000</v>
-      </c>
       <c r="H23" s="3">
+        <v>3326000</v>
+      </c>
+      <c r="I23" s="3">
         <v>4300000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4623000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1953000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-419000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3970000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-216000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-252000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>625000</v>
       </c>
-      <c r="G24" s="3">
-        <v>735000</v>
-      </c>
       <c r="H24" s="3">
+        <v>652000</v>
+      </c>
+      <c r="I24" s="3">
         <v>859000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>884000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>381000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-181000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>759000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,78 +1331,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-453000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-527000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2477000</v>
       </c>
-      <c r="G26" s="3">
-        <v>2983000</v>
-      </c>
       <c r="H26" s="3">
+        <v>2674000</v>
+      </c>
+      <c r="I26" s="3">
         <v>3441000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3739000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1572000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-238000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3211000</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-459000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-566000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2351000</v>
       </c>
-      <c r="G27" s="3">
-        <v>2903000</v>
-      </c>
       <c r="H27" s="3">
+        <v>2594000</v>
+      </c>
+      <c r="I27" s="3">
         <v>3366000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3122000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1420000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-303000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3116000</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1445,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1483,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1521,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,17 +1559,20 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-262000</v>
+      </c>
+      <c r="E32" s="3">
         <v>196000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -1511,11 +1580,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-233000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1525,46 +1594,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-459000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-566000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2351000</v>
       </c>
-      <c r="G33" s="3">
-        <v>2903000</v>
-      </c>
       <c r="H33" s="3">
+        <v>2594000</v>
+      </c>
+      <c r="I33" s="3">
         <v>3366000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3122000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1420000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-303000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3116000</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,83 +1673,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-459000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-566000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2351000</v>
       </c>
-      <c r="G35" s="3">
-        <v>2903000</v>
-      </c>
       <c r="H35" s="3">
+        <v>2594000</v>
+      </c>
+      <c r="I35" s="3">
         <v>3366000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3122000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1420000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-303000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3116000</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1772,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,43 +1788,47 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>751000</v>
+      </c>
+      <c r="E41" s="3">
         <v>465000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>552000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>382000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>457000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>583000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>537000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>518000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1773,8 +1862,11 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1808,8 +1900,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,8 +1938,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1878,8 +1976,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1913,43 +2014,49 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>223389000</v>
+      </c>
+      <c r="E47" s="3">
         <v>224556000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>220912000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>213806000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>223790000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>239783000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>256318000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>254682000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1983,8 +2090,11 @@
       <c r="M48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2018,8 +2128,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2166,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,43 +2204,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8233000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8439000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8843000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9715000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7778000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>6381000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4837000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4479000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,43 +2280,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>367470000</v>
+      </c>
+      <c r="E54" s="3">
         <v>366691000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>360322000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>354595000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>368271000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>394667000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>416212000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>414231000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2336,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,8 +2352,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2258,8 +2388,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2273,17 +2406,17 @@
         <v>1500000</v>
       </c>
       <c r="G58" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="H58" s="3">
         <v>1895000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8346000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8317000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2293,43 +2426,49 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>252253000</v>
+      </c>
+      <c r="E59" s="3">
         <v>248279000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>243796000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>242363000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>246535000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>260452000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>268806000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>264976000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2363,43 +2502,49 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10527000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10559000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>13826000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13863000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13664000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7313000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7363000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7762000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2433,8 +2578,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2616,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2654,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,43 +2692,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>356909000</v>
+      </c>
+      <c r="E66" s="3">
         <v>355136000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>350942000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>347066000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>356388000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>375186000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>389126000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>377722000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2748,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2784,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2822,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2860,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,43 +2898,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17811000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17592000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18207000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16783000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>14643000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>12030000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>8859000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>25913000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2974,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3012,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,43 +3050,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10561000</v>
+      </c>
+      <c r="E76" s="3">
         <v>11555000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9380000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7529000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11883000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19481000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>27086000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>36509000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,83 +3126,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>771000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-459000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-566000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2351000</v>
       </c>
-      <c r="G81" s="3">
-        <v>2903000</v>
-      </c>
       <c r="H81" s="3">
+        <v>2594000</v>
+      </c>
+      <c r="I81" s="3">
         <v>3366000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3122000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1420000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-303000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3116000</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,43 +3225,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E83" s="3">
         <v>105000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>-34000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>227000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>359000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>469000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>-9000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>187000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-51000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>435000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3299,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3337,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3375,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3413,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,43 +3451,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="E89" s="3">
         <v>301000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>493000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1633000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>554000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>865000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>167000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>856000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>573000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,8 +3507,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3323,8 +3543,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3581,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,43 +3619,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1477000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3923000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-875000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1209000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1246000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1077000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1526000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1992000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>474000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,16 +3675,17 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-551000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-149000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3464,7 +3697,7 @@
         <v>-290000</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-290000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -3478,8 +3711,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3749,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3787,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,109 +3825,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1595000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1065000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3620000</v>
       </c>
-      <c r="F100" s="3">
-        <v>-838000</v>
-      </c>
       <c r="G100" s="3">
-        <v>568000</v>
+        <v>-872000</v>
       </c>
       <c r="H100" s="3">
+        <v>602000</v>
+      </c>
+      <c r="I100" s="3">
         <v>1250000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1906000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>930000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1094000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-927000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5000</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-2000</v>
       </c>
       <c r="H101" s="3">
         <v>-2000</v>
       </c>
       <c r="I101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-109000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>189000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-85000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-71000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>35000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-429000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-43000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>120000</v>
       </c>
-      <c r="M102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/CRBG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/CRBG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>CRBG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,176 +665,188 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5280000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5590000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4037000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3645000</v>
       </c>
-      <c r="G8" s="3">
-        <v>6897000</v>
-      </c>
       <c r="H8" s="3">
+        <v>6294000</v>
+      </c>
+      <c r="I8" s="3">
         <v>6539000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6931000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6551000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5231000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3392000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7041000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E9" s="3">
         <v>258000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>256000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>118000</v>
       </c>
-      <c r="G9" s="3">
-        <v>339000</v>
-      </c>
       <c r="H9" s="3">
+        <v>263000</v>
+      </c>
+      <c r="I9" s="3">
         <v>252000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>243000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>181000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>388000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>48000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>440000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5012000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5332000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3781000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3527000</v>
       </c>
-      <c r="G10" s="3">
-        <v>6558000</v>
-      </c>
       <c r="H10" s="3">
+        <v>6031000</v>
+      </c>
+      <c r="I10" s="3">
         <v>6287000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6688000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6370000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4843000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3344000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6601000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,8 +861,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,8 +900,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -925,46 +941,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>1000</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2988000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-103000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>214000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1023,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1014,84 +1039,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3102000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4807000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4338000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4247000</v>
       </c>
-      <c r="G17" s="3">
-        <v>3646000</v>
-      </c>
       <c r="H17" s="3">
+        <v>3408000</v>
+      </c>
+      <c r="I17" s="3">
         <v>3131000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2783000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1834000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3195000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3713000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2957000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2178000</v>
+      </c>
+      <c r="E18" s="3">
         <v>783000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-301000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-602000</v>
       </c>
-      <c r="G18" s="3">
-        <v>3251000</v>
-      </c>
       <c r="H18" s="3">
+        <v>2886000</v>
+      </c>
+      <c r="I18" s="3">
         <v>3408000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4148000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4717000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2036000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-321000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4084000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1106,32 +1138,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>418000</v>
+      </c>
+      <c r="E20" s="3">
         <v>262000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-196000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>435000</v>
+      </c>
+      <c r="I20" s="3">
         <v>45000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>233000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1141,163 +1174,178 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2703000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1179000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-392000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-636000</v>
-      </c>
       <c r="G21" s="3">
-        <v>3983000</v>
+        <v>-43000</v>
       </c>
       <c r="H21" s="3">
+        <v>3460000</v>
+      </c>
+      <c r="I21" s="3">
         <v>3619000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4538000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>4708000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2223000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-372000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4519000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E22" s="3">
         <v>134000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>172000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>177000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>149000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>127000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>81000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>94000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>83000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>98000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>114000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2461000</v>
+      </c>
+      <c r="E23" s="3">
         <v>911000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-669000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-779000</v>
       </c>
-      <c r="G23" s="3">
-        <v>3102000</v>
-      </c>
       <c r="H23" s="3">
+        <v>3172000</v>
+      </c>
+      <c r="I23" s="3">
         <v>3326000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4300000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4623000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1953000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-419000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3970000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E24" s="3">
         <v>160000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-216000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-252000</v>
       </c>
-      <c r="G24" s="3">
-        <v>625000</v>
-      </c>
       <c r="H24" s="3">
+        <v>640000</v>
+      </c>
+      <c r="I24" s="3">
         <v>652000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>859000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>884000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>381000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-181000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>759000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1334,84 +1382,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2069000</v>
+      </c>
+      <c r="E26" s="3">
         <v>751000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-453000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-527000</v>
       </c>
-      <c r="G26" s="3">
-        <v>2477000</v>
-      </c>
       <c r="H26" s="3">
+        <v>2532000</v>
+      </c>
+      <c r="I26" s="3">
         <v>2674000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3441000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3739000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1572000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-238000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3211000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="E27" s="3">
         <v>771000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-459000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-566000</v>
       </c>
-      <c r="G27" s="3">
-        <v>2351000</v>
-      </c>
       <c r="H27" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="I27" s="3">
         <v>2594000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3366000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3122000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1420000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-303000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3116000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1448,8 +1505,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,8 +1546,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1524,8 +1587,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1562,32 +1628,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-418000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-262000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>196000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>-435000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-45000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-233000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1597,49 +1666,55 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="E33" s="3">
         <v>771000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-459000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-566000</v>
       </c>
-      <c r="G33" s="3">
-        <v>2351000</v>
-      </c>
       <c r="H33" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="I33" s="3">
         <v>2594000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3366000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3122000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1420000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-303000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3116000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1676,89 +1751,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="E35" s="3">
         <v>771000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-459000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-566000</v>
       </c>
-      <c r="G35" s="3">
-        <v>2351000</v>
-      </c>
       <c r="H35" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="I35" s="3">
         <v>2594000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3366000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3122000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1420000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-303000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3116000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1773,8 +1857,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1789,46 +1874,50 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>569000</v>
+      </c>
+      <c r="E41" s="3">
         <v>751000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>465000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>552000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>382000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>457000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>583000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>537000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>518000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1865,8 +1954,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1903,8 +1995,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1941,8 +2036,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1979,8 +2077,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2017,46 +2118,52 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>217888000</v>
+      </c>
+      <c r="E47" s="3">
         <v>223389000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>224556000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>220912000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>213806000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>223790000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>239783000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>256318000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>254682000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2093,8 +2200,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2131,8 +2241,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2169,8 +2282,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2207,46 +2323,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11034000</v>
+      </c>
+      <c r="E52" s="3">
         <v>8233000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>8439000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>8843000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9715000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7778000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6381000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4837000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4479000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2283,46 +2405,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>355592000</v>
+      </c>
+      <c r="E54" s="3">
         <v>367470000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>366691000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>360322000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>354595000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>368271000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>394667000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>416212000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>414231000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2337,8 +2465,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2353,8 +2482,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2391,13 +2521,16 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="E58" s="3">
         <v>1500000</v>
@@ -2409,17 +2542,17 @@
         <v>1500000</v>
       </c>
       <c r="H58" s="3">
+        <v>1500000</v>
+      </c>
+      <c r="I58" s="3">
         <v>1895000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8346000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8317000</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2429,46 +2562,52 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>247432000</v>
+      </c>
+      <c r="E59" s="3">
         <v>252253000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>248279000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>243796000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>242363000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>246535000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>260452000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>268806000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>264976000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2505,69 +2644,75 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10967000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10527000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10559000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>13826000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>13863000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>13664000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7313000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7363000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7762000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>1657000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -2581,8 +2726,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2619,8 +2767,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2657,8 +2808,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2695,46 +2849,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>347226000</v>
+      </c>
+      <c r="E66" s="3">
         <v>356909000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>355136000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>350942000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>347066000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>356388000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>375186000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>389126000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>377722000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2749,8 +2909,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2787,8 +2948,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2825,8 +2989,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2863,8 +3030,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2901,46 +3071,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>19765000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17811000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>17592000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18207000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16783000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>14643000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>12030000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>8859000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>25913000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,8 +3153,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3015,8 +3194,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3053,46 +3235,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8366000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10561000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11555000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9380000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7529000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11883000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19481000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>27086000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36509000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,89 +3317,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2101000</v>
+      </c>
+      <c r="E81" s="3">
         <v>771000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-459000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-566000</v>
       </c>
-      <c r="G81" s="3">
-        <v>2351000</v>
-      </c>
       <c r="H81" s="3">
+        <v>2406000</v>
+      </c>
+      <c r="I81" s="3">
         <v>2594000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3366000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3122000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1420000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-303000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3116000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3226,46 +3423,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E83" s="3">
         <v>134000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>105000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>-34000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>227000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>359000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>469000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-9000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>187000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>-51000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>435000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3302,8 +3503,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3340,8 +3544,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3378,8 +3585,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3416,8 +3626,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3454,46 +3667,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>980000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1271000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>301000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>493000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1633000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>554000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>865000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>167000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>856000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>573000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3508,8 +3727,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3546,8 +3766,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3584,8 +3807,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3622,46 +3848,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2377000</v>
+      </c>
+      <c r="E94" s="3">
         <v>587000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1477000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3923000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-875000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1209000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1246000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1077000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1526000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1992000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>474000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3676,31 +3908,32 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-551000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-149000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-296000</v>
       </c>
       <c r="H96" s="3">
-        <v>-290000</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
         <v>-290000</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-290000</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -3714,8 +3947,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3752,8 +3988,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3790,8 +4029,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3828,118 +4070,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1190000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1595000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1065000</v>
       </c>
-      <c r="F100" s="3">
-        <v>3620000</v>
-      </c>
       <c r="G100" s="3">
-        <v>-872000</v>
+        <v>3568000</v>
       </c>
       <c r="H100" s="3">
+        <v>-820000</v>
+      </c>
+      <c r="I100" s="3">
         <v>602000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1250000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1906000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>930000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1094000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-927000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-2000</v>
       </c>
       <c r="I101" s="3">
         <v>-2000</v>
       </c>
       <c r="J101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-207000</v>
+      </c>
+      <c r="E102" s="3">
         <v>264000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-109000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>189000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-85000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-71000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>35000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-429000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-43000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>120000</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
